--- a/results/experiment_results.xlsx
+++ b/results/experiment_results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC093D56-A8BE-496E-A1DC-E38AEB4A4507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8F7900-0A57-46F5-8E98-FCC57A86B2B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="alexnet8" sheetId="11" r:id="rId9"/>
     <sheet name="alexnet9" sheetId="12" r:id="rId10"/>
     <sheet name="alexnet10" sheetId="13" r:id="rId11"/>
-    <sheet name="resnet1" sheetId="8" r:id="rId12"/>
+    <sheet name="alexnet_sgd-1" sheetId="14" r:id="rId12"/>
+    <sheet name="resnet1" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
   <si>
     <t>Training set</t>
   </si>
@@ -24394,9 +24395,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.4438816769525424E-2"/>
-          <c:y val="5.0925925925925923E-2"/>
+          <c:y val="0.1388888888888889"/>
           <c:w val="0.74115911186777317"/>
-          <c:h val="0.8416746864975212"/>
+          <c:h val="0.75371172353455818"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -24407,7 +24408,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>resnet1!$D$1</c:f>
+              <c:f>'alexnet_sgd-1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24442,7 +24443,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>resnet1!$B$2:$B$82</c:f>
+              <c:f>'alexnet_sgd-1'!$B$2:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -24514,72 +24515,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>resnet1!$D$2:$D$82</c:f>
+              <c:f>'alexnet_sgd-1'!$D$2:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>0.43099212646484297</c:v>
+                  <c:v>0.49529266357421797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93719482421875</c:v>
+                  <c:v>0.86017227172851496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94774627685546797</c:v>
+                  <c:v>0.87818527221679599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96434402465820301</c:v>
+                  <c:v>0.88037109375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96966934204101496</c:v>
+                  <c:v>0.90212631225585904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97190856933593694</c:v>
+                  <c:v>0.90974044799804599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98143768310546797</c:v>
+                  <c:v>0.91085433959960904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98639678955078103</c:v>
+                  <c:v>0.901519775390625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99025344848632801</c:v>
+                  <c:v>0.91987991333007801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98741149902343694</c:v>
+                  <c:v>0.92683029174804599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99359130859375</c:v>
+                  <c:v>0.92624664306640603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99391555786132801</c:v>
+                  <c:v>0.93213653564453103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99489212036132801</c:v>
+                  <c:v>0.93335342407226496</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99448394775390603</c:v>
+                  <c:v>0.93619537353515603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99682235717773404</c:v>
+                  <c:v>0.94120025634765603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99753570556640603</c:v>
+                  <c:v>0.93276214599609297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99725723266601496</c:v>
+                  <c:v>0.93953323364257801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99667739868163996</c:v>
+                  <c:v>0.94648361206054599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99669647216796797</c:v>
+                  <c:v>0.94644546508788996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99441909790038996</c:v>
+                  <c:v>0.95222854614257801</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99396896362304599</c:v>
+                  <c:v>0.95051193237304599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24587,7 +24588,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32BC-4902-8FDA-8D8968E518DD}"/>
+              <c16:uniqueId val="{00000000-2CD6-4EE4-83A0-B74D2A164712}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24596,7 +24597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>resnet1!$J$1</c:f>
+              <c:f>'alexnet_sgd-1'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24631,7 +24632,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>resnet1!$H$2:$H$83</c:f>
+              <c:f>'alexnet_sgd-1'!$H$2:$H$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
@@ -24883,252 +24884,252 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>resnet1!$J$2:$J$83</c:f>
+              <c:f>'alexnet_sgd-1'!$J$2:$J$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
                 <c:pt idx="0">
-                  <c:v>0.4434814453125</c:v>
+                  <c:v>0.5106201171875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78425534283169995</c:v>
+                  <c:v>0.794830322265625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84007352941176405</c:v>
+                  <c:v>0.80267333984375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81138987566607401</c:v>
+                  <c:v>0.808074951171875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74687999201277899</c:v>
+                  <c:v>0.81561279296875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86195417466410695</c:v>
+                  <c:v>0.813720703125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78086857018308597</c:v>
+                  <c:v>0.807037353515625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77341180098684204</c:v>
+                  <c:v>0.817779541015625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86213751169317099</c:v>
+                  <c:v>0.836700439453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78653317836010095</c:v>
+                  <c:v>0.827362060546875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82129524886877803</c:v>
+                  <c:v>0.830352783203125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.83801893248175097</c:v>
+                  <c:v>0.813262939453125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77360537190082601</c:v>
+                  <c:v>0.7845458984375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86753731343283502</c:v>
+                  <c:v>0.83050537109375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.76493602362204705</c:v>
+                  <c:v>0.828826904296875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.73147718842729903</c:v>
+                  <c:v>0.796600341796875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70653914590747302</c:v>
+                  <c:v>0.821990966796875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.750024723101265</c:v>
+                  <c:v>0.833709716796875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.84502551020408101</c:v>
+                  <c:v>0.83514404296875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.77848497495826297</c:v>
+                  <c:v>0.842437744140625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.68593638313080696</c:v>
+                  <c:v>0.8173828125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.86644828385899797</c:v>
+                  <c:v>0.818817138671875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.74902037617554795</c:v>
+                  <c:v>0.8330078125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.66645066889632099</c:v>
+                  <c:v>0.83502197265625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.69987911891117405</c:v>
+                  <c:v>0.821319580078125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.722370426829268</c:v>
+                  <c:v>0.835723876953125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.74210883036405795</c:v>
+                  <c:v>0.804962158203125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.76031029065200295</c:v>
+                  <c:v>0.833892822265625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.72444852941176396</c:v>
+                  <c:v>0.825958251953125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.79411313420621898</c:v>
+                  <c:v>0.827972412109375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.69679235167977105</c:v>
+                  <c:v>0.8458251953125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.81393647007805703</c:v>
+                  <c:v>0.81890869140625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.75271954113924</c:v>
+                  <c:v>0.818756103515625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.700941346850108</c:v>
+                  <c:v>0.831146240234375</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.77350731112916304</c:v>
+                  <c:v>0.82891845703125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.69358327325162195</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.71366117690599495</c:v>
+                  <c:v>0.813812255859375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.75138608870967705</c:v>
+                  <c:v>0.83447265625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.73393131235610098</c:v>
+                  <c:v>0.826934814453125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78786361720067399</c:v>
+                  <c:v>0.822052001953125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.70744875549048303</c:v>
+                  <c:v>0.807891845703125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.75874403815580205</c:v>
+                  <c:v>0.81317138671875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.77357142857142802</c:v>
+                  <c:v>0.80670166015625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.75945060483870896</c:v>
+                  <c:v>0.806793212890625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.77366431451612905</c:v>
+                  <c:v>0.81781005859375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.76990024429967396</c:v>
+                  <c:v>0.83013916015625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.80735163861824599</c:v>
+                  <c:v>0.8363037109375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.73657319391634901</c:v>
+                  <c:v>0.8310546875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.68446391394864603</c:v>
+                  <c:v>0.82611083984375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.73287770479134395</c:v>
+                  <c:v>0.844818115234375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.72013786084381903</c:v>
+                  <c:v>0.829132080078125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.80514385353094997</c:v>
+                  <c:v>0.830841064453125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.71569393382352897</c:v>
+                  <c:v>0.7969970703125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.66434639973082099</c:v>
+                  <c:v>0.849609375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.72208827893174998</c:v>
+                  <c:v>0.835235595703125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.81427556818181801</c:v>
+                  <c:v>0.831817626953125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.73692255434782605</c:v>
+                  <c:v>0.816619873046875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.74326923076923002</c:v>
+                  <c:v>0.8387451171875</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.75347762645914396</c:v>
+                  <c:v>0.834320068359375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.73057307121661696</c:v>
+                  <c:v>0.81365966796875</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.77442291838417099</c:v>
+                  <c:v>0.840576171875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.71963128810975596</c:v>
+                  <c:v>0.841705322265625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.76971665302782299</c:v>
+                  <c:v>0.832244873046875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.757960838607594</c:v>
+                  <c:v>0.82489013671875</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.75014763779527505</c:v>
+                  <c:v>0.82958984375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.72254564083457495</c:v>
+                  <c:v>0.820831298828125</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.77048974255832603</c:v>
+                  <c:v>0.844146728515625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.73864736638264905</c:v>
+                  <c:v>0.81463623046875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.75933764940239001</c:v>
+                  <c:v>0.813629150390625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.78871000820344495</c:v>
+                  <c:v>0.83782958984375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.69838949022346297</c:v>
+                  <c:v>0.838897705078125</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.71821390278770503</c:v>
+                  <c:v>0.840301513671875</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.66545608108108101</c:v>
+                  <c:v>0.8087158203125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.69235912981454995</c:v>
+                  <c:v>0.843048095703125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.79022775423728797</c:v>
+                  <c:v>0.8355712890625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.79171103066439497</c:v>
+                  <c:v>0.830841064453125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.69121919014084499</c:v>
+                  <c:v>0.8228759765625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.74193548387096697</c:v>
+                  <c:v>0.7369384765625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.77851499189627205</c:v>
+                  <c:v>0.810882568359375</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.78799833887043103</c:v>
+                  <c:v>0.811309814453125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.66798689449236803</c:v>
+                  <c:v>0.82659912109375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25136,7 +25137,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-32BC-4902-8FDA-8D8968E518DD}"/>
+              <c16:uniqueId val="{00000001-2CD6-4EE4-83A0-B74D2A164712}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25541,6 +25542,3187 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'alexnet_sgd-1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train-f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'alexnet_sgd-1'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'alexnet_sgd-1'!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.65432427771942703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86313517711588705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88203502783534404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.871586981802696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90052457516390505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.907755464848364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91041314456801303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90527003324502198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91802139726230503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92541306486547403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92367575420229397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93044369027697404</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93324009644668104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93438005115892198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94076322969908899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93438265492260297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94068782811406604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94577137312959703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94499104669432898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95181849311115596</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.950544570119359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CF3-439E-B8CD-7ECD92A56C0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'alexnet_sgd-1'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>valid-f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'alexnet_sgd-1'!$H$2:$H$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'alexnet_sgd-1'!$K$2:$K$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.66785418392709195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.796722401959302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79276969425036803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79174807112818302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81215023007088605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80322372662798103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.783925093121006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80068097606569399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83662565261197397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81583487970830404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82286588280279105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79317221564982199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74403596548473605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82152956298200497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82410862679920904</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76243093922651906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80490986320612701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82542530355941401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82912633643322498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84071205997593501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79647643017481795</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79650385604113105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82244143033292205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.82990371908627503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80409542610499496</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82793671088381005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77706073185195501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.82504580373501302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.82125058768218095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.81008052289343302</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84180861723446898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79417273673257005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.79556641767925296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.81721779921376803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.81138550568602297</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.78574417631468796</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78922093625842105</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.82039735099337696</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.81223719498063096</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.804453536335893</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77665424871385402</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78538876814134395</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78020681518495305</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.77691250572606496</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.79169574319609204</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81679942070962996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.82475169890224698</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.81404098085320797</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.80753901236235903</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83947343498437299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.81482951350993804</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.81457197337169196</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76059886273662902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.84405063291139204</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.82650470773482398</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.81566712379168405</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.79389470073743695</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.83065188128966005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.81912377144760895</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.78572431218416605</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83320561941251503</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83255318462084704</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.81602463268516301</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.80465717981888696</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.81759979094531898</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.79832365772388403</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.837382582391339</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.79039271171233305</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.78757522000765201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.827389072955239</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.83077416252604497</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.83027924626212102</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77673292013963102</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.83876226604382798</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.82271650434324795</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.81570635369219002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.80049498143819597</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.65398201669877898</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78163430705803505</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80844177735823597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CF3-439E-B8CD-7ECD92A56C0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458162208"/>
+        <c:axId val="458160240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458162208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Broj</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hr-HR" baseline="0"/>
+                  <a:t> epohe</a:t>
+                </a:r>
+                <a:endParaRPr lang="hr-HR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458160240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="458160240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>F1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458162208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sr-Latn-RS"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sr-Latn-RS"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sr-Latn-RS"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.670603674540682E-2"/>
+          <c:y val="0.14825646545164781"/>
+          <c:w val="0.72965081896408523"/>
+          <c:h val="0.72454438329691839"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'alexnet_sgd-1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train-loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'alexnet_sgd-1'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'alexnet_sgd-1'!$C$4:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.34250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14860000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BDE-4194-9F81-8DC6B6D35E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'alexnet_sgd-1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>valid-loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'alexnet_sgd-1'!$H$2:$H$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'alexnet_sgd-1'!$I$2:$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="8">
+                  <c:v>0.36359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.43109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.41239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.51590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.43319999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BDE-4194-9F81-8DC6B6D35E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424880536"/>
+        <c:axId val="424877912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424880536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Broj epohe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424877912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424877912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424880536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sr-Latn-RS"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sr-Latn-RS"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sr-Latn-RS"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4438816769525424E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.74115911186777317"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resnet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train-acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>resnet1!$B$2:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resnet1!$D$2:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.43099212646484297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93719482421875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94774627685546797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96434402465820301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96966934204101496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97190856933593694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98143768310546797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98639678955078103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99025344848632801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98741149902343694</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99359130859375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99391555786132801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99489212036132801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99448394775390603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99682235717773404</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99753570556640603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99725723266601496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99667739868163996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99669647216796797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99441909790038996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99396896362304599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32BC-4902-8FDA-8D8968E518DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resnet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>valid-acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>resnet1!$H$2:$H$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resnet1!$J$2:$J$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>0.4434814453125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78425534283169995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84007352941176405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81138987566607401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74687999201277899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86195417466410695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78086857018308597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77341180098684204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86213751169317099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78653317836010095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82129524886877803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83801893248175097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77360537190082601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86753731343283502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76493602362204705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73147718842729903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70653914590747302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.750024723101265</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84502551020408101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77848497495826297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68593638313080696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86644828385899797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74902037617554795</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66645066889632099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69987911891117405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.722370426829268</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74210883036405795</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76031029065200295</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72444852941176396</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79411313420621898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.69679235167977105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81393647007805703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75271954113924</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.700941346850108</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77350731112916304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69358327325162195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.71366117690599495</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75138608870967705</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.73393131235610098</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78786361720067399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70744875549048303</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.75874403815580205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.77357142857142802</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75945060483870896</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77366431451612905</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76990024429967396</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80735163861824599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.73657319391634901</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.68446391394864603</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.73287770479134395</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.72013786084381903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80514385353094997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.71569393382352897</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66434639973082099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.72208827893174998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.81427556818181801</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.73692255434782605</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.74326923076923002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.75347762645914396</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.73057307121661696</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.77442291838417099</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.71963128810975596</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76971665302782299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.757960838607594</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75014763779527505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.72254564083457495</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.77048974255832603</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.73864736638264905</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75933764940239001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.78871000820344495</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69838949022346297</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71821390278770503</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.66545608108108101</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.69235912981454995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.79022775423728797</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.79171103066439497</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.69121919014084499</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.74193548387096697</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77851499189627205</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78799833887043103</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.66798689449236803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32BC-4902-8FDA-8D8968E518DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="461016760"/>
+        <c:axId val="461017416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="461016760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Broj epohe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461017416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="461017416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Acc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461016760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sr-Latn-RS"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sr-Latn-RS"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>F1 score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sr-Latn-RS"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>resnet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -26600,7 +29782,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
@@ -34945,6 +38127,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -49117,6 +52419,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -52446,6 +57296,125 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafikon 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DD228C-B00F-4C2C-898B-6C48BF18E9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafikon 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5C874D-EEDA-4B4B-9060-8DCFF3EDBA98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafikon 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3071548A-4B33-411B-9F11-F4286A3B03AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -55746,10 +60715,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E016A0-95B9-4D8D-A8AD-5B0F1DC3BC22}">
+  <dimension ref="A1:K82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K31" workbookViewId="0">
+      <selection activeCell="X57" sqref="X57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.49529266357421797</v>
+      </c>
+      <c r="E2">
+        <v>0.65432427771942703</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.5106201171875</v>
+      </c>
+      <c r="K2">
+        <v>0.66785418392709195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.86017227172851496</v>
+      </c>
+      <c r="E3">
+        <v>0.86313517711588705</v>
+      </c>
+      <c r="H3">
+        <v>0.125</v>
+      </c>
+      <c r="J3">
+        <v>0.794830322265625</v>
+      </c>
+      <c r="K3">
+        <v>0.796722401959302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.87818527221679599</v>
+      </c>
+      <c r="E4">
+        <v>0.88203502783534404</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="J4">
+        <v>0.80267333984375</v>
+      </c>
+      <c r="K4">
+        <v>0.79276969425036803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>0.88037109375</v>
+      </c>
+      <c r="E5">
+        <v>0.871586981802696</v>
+      </c>
+      <c r="H5">
+        <v>0.375</v>
+      </c>
+      <c r="J5">
+        <v>0.808074951171875</v>
+      </c>
+      <c r="K5">
+        <v>0.79174807112818302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.90212631225585904</v>
+      </c>
+      <c r="E6">
+        <v>0.90052457516390505</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.81561279296875</v>
+      </c>
+      <c r="K6">
+        <v>0.81215023007088605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <v>0.90974044799804599</v>
+      </c>
+      <c r="E7">
+        <v>0.907755464848364</v>
+      </c>
+      <c r="H7">
+        <v>0.625</v>
+      </c>
+      <c r="J7">
+        <v>0.813720703125</v>
+      </c>
+      <c r="K7">
+        <v>0.80322372662798103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.91085433959960904</v>
+      </c>
+      <c r="E8">
+        <v>0.91041314456801303</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
+      <c r="J8">
+        <v>0.807037353515625</v>
+      </c>
+      <c r="K8">
+        <v>0.783925093121006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>0.901519775390625</v>
+      </c>
+      <c r="E9">
+        <v>0.90527003324502198</v>
+      </c>
+      <c r="H9">
+        <v>0.875</v>
+      </c>
+      <c r="J9">
+        <v>0.817779541015625</v>
+      </c>
+      <c r="K9">
+        <v>0.80068097606569399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.91987991333007801</v>
+      </c>
+      <c r="E10">
+        <v>0.91802139726230503</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.836700439453125</v>
+      </c>
+      <c r="K10">
+        <v>0.83662565261197397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4.5</v>
+      </c>
+      <c r="D11">
+        <v>0.92683029174804599</v>
+      </c>
+      <c r="E11">
+        <v>0.92541306486547403</v>
+      </c>
+      <c r="H11">
+        <v>1.125</v>
+      </c>
+      <c r="J11">
+        <v>0.827362060546875</v>
+      </c>
+      <c r="K11">
+        <v>0.81583487970830404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.92624664306640603</v>
+      </c>
+      <c r="E12">
+        <v>0.92367575420229397</v>
+      </c>
+      <c r="H12">
+        <v>1.25</v>
+      </c>
+      <c r="J12">
+        <v>0.830352783203125</v>
+      </c>
+      <c r="K12">
+        <v>0.82286588280279105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5.5</v>
+      </c>
+      <c r="D13">
+        <v>0.93213653564453103</v>
+      </c>
+      <c r="E13">
+        <v>0.93044369027697404</v>
+      </c>
+      <c r="H13">
+        <v>1.375</v>
+      </c>
+      <c r="J13">
+        <v>0.813262939453125</v>
+      </c>
+      <c r="K13">
+        <v>0.79317221564982199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.93335342407226496</v>
+      </c>
+      <c r="E14">
+        <v>0.93324009644668104</v>
+      </c>
+      <c r="H14">
+        <v>1.5</v>
+      </c>
+      <c r="J14">
+        <v>0.7845458984375</v>
+      </c>
+      <c r="K14">
+        <v>0.74403596548473605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6.5</v>
+      </c>
+      <c r="D15">
+        <v>0.93619537353515603</v>
+      </c>
+      <c r="E15">
+        <v>0.93438005115892198</v>
+      </c>
+      <c r="H15">
+        <v>1.625</v>
+      </c>
+      <c r="J15">
+        <v>0.83050537109375</v>
+      </c>
+      <c r="K15">
+        <v>0.82152956298200497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.94120025634765603</v>
+      </c>
+      <c r="E16">
+        <v>0.94076322969908899</v>
+      </c>
+      <c r="H16">
+        <v>1.75</v>
+      </c>
+      <c r="J16">
+        <v>0.828826904296875</v>
+      </c>
+      <c r="K16">
+        <v>0.82410862679920904</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>7.5</v>
+      </c>
+      <c r="D17">
+        <v>0.93276214599609297</v>
+      </c>
+      <c r="E17">
+        <v>0.93438265492260297</v>
+      </c>
+      <c r="H17">
+        <v>1.875</v>
+      </c>
+      <c r="J17">
+        <v>0.796600341796875</v>
+      </c>
+      <c r="K17">
+        <v>0.76243093922651906</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0.1668</v>
+      </c>
+      <c r="D18">
+        <v>0.93953323364257801</v>
+      </c>
+      <c r="E18">
+        <v>0.94068782811406604</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="J18">
+        <v>0.821990966796875</v>
+      </c>
+      <c r="K18">
+        <v>0.80490986320612701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>8.5</v>
+      </c>
+      <c r="D19">
+        <v>0.94648361206054599</v>
+      </c>
+      <c r="E19">
+        <v>0.94577137312959703</v>
+      </c>
+      <c r="H19">
+        <v>2.125</v>
+      </c>
+      <c r="J19">
+        <v>0.833709716796875</v>
+      </c>
+      <c r="K19">
+        <v>0.82542530355941401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.94644546508788996</v>
+      </c>
+      <c r="E20">
+        <v>0.94499104669432898</v>
+      </c>
+      <c r="H20">
+        <v>2.25</v>
+      </c>
+      <c r="J20">
+        <v>0.83514404296875</v>
+      </c>
+      <c r="K20">
+        <v>0.82912633643322498</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>9.5</v>
+      </c>
+      <c r="D21">
+        <v>0.95222854614257801</v>
+      </c>
+      <c r="E21">
+        <v>0.95181849311115596</v>
+      </c>
+      <c r="H21">
+        <v>2.375</v>
+      </c>
+      <c r="J21">
+        <v>0.842437744140625</v>
+      </c>
+      <c r="K21">
+        <v>0.84071205997593501</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.95051193237304599</v>
+      </c>
+      <c r="E22">
+        <v>0.950544570119359</v>
+      </c>
+      <c r="H22">
+        <v>2.5</v>
+      </c>
+      <c r="J22">
+        <v>0.8173828125</v>
+      </c>
+      <c r="K22">
+        <v>0.79647643017481795</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>2.625</v>
+      </c>
+      <c r="J23">
+        <v>0.818817138671875</v>
+      </c>
+      <c r="K23">
+        <v>0.79650385604113105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2.75</v>
+      </c>
+      <c r="J24">
+        <v>0.8330078125</v>
+      </c>
+      <c r="K24">
+        <v>0.82244143033292205</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>2.875</v>
+      </c>
+      <c r="J25">
+        <v>0.83502197265625</v>
+      </c>
+      <c r="K25">
+        <v>0.82990371908627503</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.821319580078125</v>
+      </c>
+      <c r="K26">
+        <v>0.80409542610499496</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>3.125</v>
+      </c>
+      <c r="J27">
+        <v>0.835723876953125</v>
+      </c>
+      <c r="K27">
+        <v>0.82793671088381005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>3.25</v>
+      </c>
+      <c r="J28">
+        <v>0.804962158203125</v>
+      </c>
+      <c r="K28">
+        <v>0.77706073185195501</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>3.375</v>
+      </c>
+      <c r="J29">
+        <v>0.833892822265625</v>
+      </c>
+      <c r="K29">
+        <v>0.82504580373501302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>3.5</v>
+      </c>
+      <c r="J30">
+        <v>0.825958251953125</v>
+      </c>
+      <c r="K30">
+        <v>0.82125058768218095</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>3.625</v>
+      </c>
+      <c r="J31">
+        <v>0.827972412109375</v>
+      </c>
+      <c r="K31">
+        <v>0.81008052289343302</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>3.75</v>
+      </c>
+      <c r="J32">
+        <v>0.8458251953125</v>
+      </c>
+      <c r="K32">
+        <v>0.84180861723446898</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>3.875</v>
+      </c>
+      <c r="J33">
+        <v>0.81890869140625</v>
+      </c>
+      <c r="K33">
+        <v>0.79417273673257005</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="J34">
+        <v>0.818756103515625</v>
+      </c>
+      <c r="K34">
+        <v>0.79556641767925296</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>4.125</v>
+      </c>
+      <c r="J35">
+        <v>0.831146240234375</v>
+      </c>
+      <c r="K35">
+        <v>0.81721779921376803</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>4.25</v>
+      </c>
+      <c r="J36">
+        <v>0.82891845703125</v>
+      </c>
+      <c r="K36">
+        <v>0.81138550568602297</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>4.375</v>
+      </c>
+      <c r="J37">
+        <v>0.8125</v>
+      </c>
+      <c r="K37">
+        <v>0.78574417631468796</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>4.5</v>
+      </c>
+      <c r="J38">
+        <v>0.813812255859375</v>
+      </c>
+      <c r="K38">
+        <v>0.78922093625842105</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>4.625</v>
+      </c>
+      <c r="J39">
+        <v>0.83447265625</v>
+      </c>
+      <c r="K39">
+        <v>0.82039735099337696</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>4.75</v>
+      </c>
+      <c r="J40">
+        <v>0.826934814453125</v>
+      </c>
+      <c r="K40">
+        <v>0.81223719498063096</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>4.875</v>
+      </c>
+      <c r="J41">
+        <v>0.822052001953125</v>
+      </c>
+      <c r="K41">
+        <v>0.804453536335893</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="J42">
+        <v>0.807891845703125</v>
+      </c>
+      <c r="K42">
+        <v>0.77665424871385402</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>5.125</v>
+      </c>
+      <c r="J43">
+        <v>0.81317138671875</v>
+      </c>
+      <c r="K43">
+        <v>0.78538876814134395</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>5.25</v>
+      </c>
+      <c r="J44">
+        <v>0.80670166015625</v>
+      </c>
+      <c r="K44">
+        <v>0.78020681518495305</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>5.375</v>
+      </c>
+      <c r="J45">
+        <v>0.806793212890625</v>
+      </c>
+      <c r="K45">
+        <v>0.77691250572606496</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>5.5</v>
+      </c>
+      <c r="J46">
+        <v>0.81781005859375</v>
+      </c>
+      <c r="K46">
+        <v>0.79169574319609204</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>5.625</v>
+      </c>
+      <c r="J47">
+        <v>0.83013916015625</v>
+      </c>
+      <c r="K47">
+        <v>0.81679942070962996</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>5.75</v>
+      </c>
+      <c r="J48">
+        <v>0.8363037109375</v>
+      </c>
+      <c r="K48">
+        <v>0.82475169890224698</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>5.875</v>
+      </c>
+      <c r="J49">
+        <v>0.8310546875</v>
+      </c>
+      <c r="K49">
+        <v>0.81404098085320797</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>0.432</v>
+      </c>
+      <c r="J50">
+        <v>0.82611083984375</v>
+      </c>
+      <c r="K50">
+        <v>0.80753901236235903</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>6.125</v>
+      </c>
+      <c r="J51">
+        <v>0.844818115234375</v>
+      </c>
+      <c r="K51">
+        <v>0.83947343498437299</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>6.25</v>
+      </c>
+      <c r="J52">
+        <v>0.829132080078125</v>
+      </c>
+      <c r="K52">
+        <v>0.81482951350993804</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>6.375</v>
+      </c>
+      <c r="J53">
+        <v>0.830841064453125</v>
+      </c>
+      <c r="K53">
+        <v>0.81457197337169196</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>6.5</v>
+      </c>
+      <c r="J54">
+        <v>0.7969970703125</v>
+      </c>
+      <c r="K54">
+        <v>0.76059886273662902</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>6.625</v>
+      </c>
+      <c r="J55">
+        <v>0.849609375</v>
+      </c>
+      <c r="K55">
+        <v>0.84405063291139204</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>6.75</v>
+      </c>
+      <c r="J56">
+        <v>0.835235595703125</v>
+      </c>
+      <c r="K56">
+        <v>0.82650470773482398</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>6.875</v>
+      </c>
+      <c r="J57">
+        <v>0.831817626953125</v>
+      </c>
+      <c r="K57">
+        <v>0.81566712379168405</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="J58">
+        <v>0.816619873046875</v>
+      </c>
+      <c r="K58">
+        <v>0.79389470073743695</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>7.125</v>
+      </c>
+      <c r="J59">
+        <v>0.8387451171875</v>
+      </c>
+      <c r="K59">
+        <v>0.83065188128966005</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>7.25</v>
+      </c>
+      <c r="J60">
+        <v>0.834320068359375</v>
+      </c>
+      <c r="K60">
+        <v>0.81912377144760895</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>7.375</v>
+      </c>
+      <c r="J61">
+        <v>0.81365966796875</v>
+      </c>
+      <c r="K61">
+        <v>0.78572431218416605</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>7.5</v>
+      </c>
+      <c r="J62">
+        <v>0.840576171875</v>
+      </c>
+      <c r="K62">
+        <v>0.83320561941251503</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>7.625</v>
+      </c>
+      <c r="J63">
+        <v>0.841705322265625</v>
+      </c>
+      <c r="K63">
+        <v>0.83255318462084704</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>7.75</v>
+      </c>
+      <c r="J64">
+        <v>0.832244873046875</v>
+      </c>
+      <c r="K64">
+        <v>0.81602463268516301</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>7.875</v>
+      </c>
+      <c r="J65">
+        <v>0.82489013671875</v>
+      </c>
+      <c r="K65">
+        <v>0.80465717981888696</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="J66">
+        <v>0.82958984375</v>
+      </c>
+      <c r="K66">
+        <v>0.81759979094531898</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>8.125</v>
+      </c>
+      <c r="J67">
+        <v>0.820831298828125</v>
+      </c>
+      <c r="K67">
+        <v>0.79832365772388403</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>8.25</v>
+      </c>
+      <c r="J68">
+        <v>0.844146728515625</v>
+      </c>
+      <c r="K68">
+        <v>0.837382582391339</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>8.375</v>
+      </c>
+      <c r="J69">
+        <v>0.81463623046875</v>
+      </c>
+      <c r="K69">
+        <v>0.79039271171233305</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>8.5</v>
+      </c>
+      <c r="J70">
+        <v>0.813629150390625</v>
+      </c>
+      <c r="K70">
+        <v>0.78757522000765201</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>8.625</v>
+      </c>
+      <c r="J71">
+        <v>0.83782958984375</v>
+      </c>
+      <c r="K71">
+        <v>0.827389072955239</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>8.75</v>
+      </c>
+      <c r="J72">
+        <v>0.838897705078125</v>
+      </c>
+      <c r="K72">
+        <v>0.83077416252604497</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>8.875</v>
+      </c>
+      <c r="J73">
+        <v>0.840301513671875</v>
+      </c>
+      <c r="K73">
+        <v>0.83027924626212102</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>9</v>
+      </c>
+      <c r="I74">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="J74">
+        <v>0.8087158203125</v>
+      </c>
+      <c r="K74">
+        <v>0.77673292013963102</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>9.125</v>
+      </c>
+      <c r="J75">
+        <v>0.843048095703125</v>
+      </c>
+      <c r="K75">
+        <v>0.83876226604382798</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>9.25</v>
+      </c>
+      <c r="J76">
+        <v>0.8355712890625</v>
+      </c>
+      <c r="K76">
+        <v>0.82271650434324795</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>9.375</v>
+      </c>
+      <c r="J77">
+        <v>0.830841064453125</v>
+      </c>
+      <c r="K77">
+        <v>0.81570635369219002</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>9.5</v>
+      </c>
+      <c r="J78">
+        <v>0.8228759765625</v>
+      </c>
+      <c r="K78">
+        <v>0.80049498143819597</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>9.625</v>
+      </c>
+      <c r="J79">
+        <v>0.7369384765625</v>
+      </c>
+      <c r="K79">
+        <v>0.65398201669877898</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>9.75</v>
+      </c>
+      <c r="J80">
+        <v>0.810882568359375</v>
+      </c>
+      <c r="K80">
+        <v>0.78163430705803505</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>9.875</v>
+      </c>
+      <c r="J81">
+        <v>0.811309814453125</v>
+      </c>
+      <c r="K81">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="J82">
+        <v>0.82659912109375</v>
+      </c>
+      <c r="K82">
+        <v>0.80844177735823597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9AAABD-4528-43C0-820E-483E8E75EBEC}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
